--- a/Housing Data/output_data/Mulitvariate R2 summary.xlsx
+++ b/Housing Data/output_data/Mulitvariate R2 summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terrencecummings/Desktop/Bootcamp/Project_Repos/Crime_Housing_Schools_Correlation/Housing Data/output_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF0F5F6-E70A-E04D-B4BD-51F679CAB6A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3AE43C-8E11-2345-A7CE-9430D1C8A555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{DC56C61E-0F0C-6142-87E7-2326F5F41ECB}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{DC56C61E-0F0C-6142-87E7-2326F5F41ECB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
